--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,90 +40,90 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
     <t>boring</t>
   </si>
   <si>
-    <t>worse</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>stupid</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>frightening</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -136,43 +136,37 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>social</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>positive</t>
@@ -541,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -652,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>38</v>
@@ -702,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9134615384615384</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>39</v>
@@ -752,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K6">
-        <v>0.82</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +820,13 @@
         <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,13 +870,13 @@
         <v>42</v>
       </c>
       <c r="K8">
-        <v>0.6140350877192983</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>0.5862068965517241</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8181818181818182</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,13 +970,13 @@
         <v>44</v>
       </c>
       <c r="K10">
-        <v>0.5333333333333333</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,13 +1020,13 @@
         <v>45</v>
       </c>
       <c r="K11">
-        <v>0.5166666666666667</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1070,13 @@
         <v>46</v>
       </c>
       <c r="K12">
-        <v>0.4210526315789473</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1120,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>47</v>
@@ -1152,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7368421052631579</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1170,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>0.2222222222222222</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L14">
         <v>6</v>
@@ -1194,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1202,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1220,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K15">
-        <v>0.1818181818181818</v>
+        <v>0.03460837887067395</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1244,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,13 +1246,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1270,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K16">
-        <v>0.1666666666666667</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1294,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1320,39 +1314,15 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17">
-        <v>0.125</v>
-      </c>
-      <c r="L17">
-        <v>6</v>
-      </c>
-      <c r="M17">
-        <v>6</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -1370,45 +1340,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18">
-        <v>0.05009107468123861</v>
-      </c>
-      <c r="L18">
-        <v>55</v>
-      </c>
-      <c r="M18">
-        <v>55</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1420,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1446,21 +1392,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4855072463768116</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C21">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1472,21 +1418,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4615384615384616</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1498,21 +1444,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.391304347826087</v>
+        <v>0.4</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1524,47 +1470,47 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3617021276595745</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>17</v>
       </c>
-      <c r="D24">
-        <v>17</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2857142857142857</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1576,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2857142857142857</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1602,21 +1548,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2564102564102564</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1628,15 +1574,15 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1654,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1665,10 +1611,10 @@
         <v>0.2307692307692308</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1680,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1706,21 +1652,21 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.08974358974358974</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1732,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
